--- a/Files/Book1.xlsx
+++ b/Files/Book1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safiullahrashidi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safiullahrashidi/IdeaProjects/Test/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB93AA68-95FA-6345-9BD3-0E640B47322F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F9E262-B293-D04D-B780-8E3AE3D8FC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="540" windowWidth="24720" windowHeight="15900" xr2:uid="{42C2D473-EC6F-5E43-83BE-C9F33C134520}"/>
+    <workbookView xWindow="3420" yWindow="540" windowWidth="24720" windowHeight="15900" activeTab="1" xr2:uid="{42C2D473-EC6F-5E43-83BE-C9F33C134520}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -55,16 +56,48 @@
   </si>
   <si>
     <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Useraname</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>asghar@gmail.com</t>
+  </si>
+  <si>
+    <t>123SKBDSSD+_#_$</t>
+  </si>
+  <si>
+    <t>asghar@gmail</t>
+  </si>
+  <si>
+    <t>asghar@gmail.</t>
+  </si>
+  <si>
+    <t>asghargmail.com</t>
+  </si>
+  <si>
+    <t>123SKBDSSD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0066CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,11 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D340CF3-FE55-3640-A58B-83423A97B5D5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -479,4 +513,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5442E1-A97F-D543-AB47-4629409E328A}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>